--- a/backend/rdd/RDD-Brejinho.xlsx
+++ b/backend/rdd/RDD-Brejinho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>TIPO_DE_SERVICO</t>
   </si>
@@ -34,22 +34,82 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>01:00</t>
+    <t>Manutenção no equipamento da cliente</t>
+  </si>
+  <si>
+    <t>Vila de fatima</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>13:47</t>
+  </si>
+  <si>
+    <t>02:51</t>
   </si>
   <si>
     <t>Rivaldo Souza</t>
   </si>
   <si>
     <t>22/4/2022</t>
+  </si>
+  <si>
+    <t>Manutenção na antena e no Ap da cliente</t>
+  </si>
+  <si>
+    <t>Lagoa dos campos</t>
+  </si>
+  <si>
+    <t>10:31</t>
+  </si>
+  <si>
+    <t>14:57</t>
+  </si>
+  <si>
+    <t>04:26</t>
+  </si>
+  <si>
+    <t>Explicação a respeito do tvbox</t>
+  </si>
+  <si>
+    <t>Brejinho</t>
+  </si>
+  <si>
+    <t>09:50</t>
+  </si>
+  <si>
+    <t>11:56</t>
+  </si>
+  <si>
+    <t>02:06</t>
+  </si>
+  <si>
+    <t>Atendimento preliminar transferencia para o financeiro</t>
+  </si>
+  <si>
+    <t>14:16</t>
+  </si>
+  <si>
+    <t>14:44</t>
+  </si>
+  <si>
+    <t>00:28</t>
+  </si>
+  <si>
+    <t>Manotenção no roteador do cliente</t>
+  </si>
+  <si>
+    <t>Vila de Fatima</t>
+  </si>
+  <si>
+    <t>08:43</t>
+  </si>
+  <si>
+    <t>09:09</t>
+  </si>
+  <si>
+    <t>00:26</t>
   </si>
 </sst>
 </file>
@@ -436,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="60" customWidth="1"/>
@@ -471,22 +531,114 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/rdd/RDD-Brejinho.xlsx
+++ b/backend/rdd/RDD-Brejinho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>TIPO_DE_SERVICO</t>
   </si>
@@ -34,82 +34,22 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>Manutenção no equipamento da cliente</t>
-  </si>
-  <si>
-    <t>Vila de fatima</t>
-  </si>
-  <si>
-    <t>10:56</t>
-  </si>
-  <si>
-    <t>13:47</t>
-  </si>
-  <si>
-    <t>02:51</t>
-  </si>
-  <si>
-    <t>Rivaldo Souza</t>
-  </si>
-  <si>
-    <t>22/4/2022</t>
-  </si>
-  <si>
-    <t>Manutenção na antena e no Ap da cliente</t>
-  </si>
-  <si>
-    <t>Lagoa dos campos</t>
-  </si>
-  <si>
-    <t>10:31</t>
-  </si>
-  <si>
-    <t>14:57</t>
-  </si>
-  <si>
-    <t>04:26</t>
-  </si>
-  <si>
-    <t>Explicação a respeito do tvbox</t>
-  </si>
-  <si>
-    <t>Brejinho</t>
-  </si>
-  <si>
-    <t>09:50</t>
-  </si>
-  <si>
-    <t>11:56</t>
-  </si>
-  <si>
-    <t>02:06</t>
-  </si>
-  <si>
-    <t>Atendimento preliminar transferencia para o financeiro</t>
-  </si>
-  <si>
-    <t>14:16</t>
-  </si>
-  <si>
-    <t>14:44</t>
-  </si>
-  <si>
-    <t>00:28</t>
-  </si>
-  <si>
-    <t>Manotenção no roteador do cliente</t>
-  </si>
-  <si>
-    <t>Vila de Fatima</t>
-  </si>
-  <si>
-    <t>08:43</t>
-  </si>
-  <si>
-    <t>09:09</t>
-  </si>
-  <si>
-    <t>00:26</t>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>Rivaldo</t>
+  </si>
+  <si>
+    <t>26/4/2022</t>
   </si>
 </sst>
 </file>
@@ -496,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="60" customWidth="1"/>
@@ -531,114 +471,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/rdd/RDD-Brejinho.xlsx
+++ b/backend/rdd/RDD-Brejinho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>TIPO_DE_SERVICO</t>
   </si>
@@ -37,6 +37,9 @@
     <t>teste</t>
   </si>
   <si>
+    <t>brejinho</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -49,7 +52,7 @@
     <t>Rivaldo</t>
   </si>
   <si>
-    <t>26/4/2022</t>
+    <t>3/5/2022</t>
   </si>
 </sst>
 </file>
@@ -471,22 +474,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/backend/rdd/RDD-Brejinho.xlsx
+++ b/backend/rdd/RDD-Brejinho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>TIPO_DE_SERVICO</t>
   </si>
@@ -34,25 +34,70 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>brejinho</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>01:00</t>
-  </si>
-  <si>
-    <t>Rivaldo</t>
-  </si>
-  <si>
-    <t>3/5/2022</t>
+    <t>manutencao roteador rede cabeada</t>
+  </si>
+  <si>
+    <t>Vila de fatima</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>16:55</t>
+  </si>
+  <si>
+    <t>00:20</t>
+  </si>
+  <si>
+    <t>Rivaldo Souza</t>
+  </si>
+  <si>
+    <t>4/5/2022</t>
+  </si>
+  <si>
+    <t>Verificação na antena da cliente</t>
+  </si>
+  <si>
+    <t>Mussambe</t>
+  </si>
+  <si>
+    <t>14:39</t>
+  </si>
+  <si>
+    <t>15:28</t>
+  </si>
+  <si>
+    <t>00:49</t>
+  </si>
+  <si>
+    <t>Orientação ao cliente, de como remover os cabos do PoE</t>
+  </si>
+  <si>
+    <t>Lagoa dos campos</t>
+  </si>
+  <si>
+    <t>14:42</t>
+  </si>
+  <si>
+    <t>15:13</t>
+  </si>
+  <si>
+    <t>00:31</t>
+  </si>
+  <si>
+    <t>Orientação a respeito da conexão</t>
+  </si>
+  <si>
+    <t>Sitio santana</t>
+  </si>
+  <si>
+    <t>09:36</t>
+  </si>
+  <si>
+    <t>11:29</t>
+  </si>
+  <si>
+    <t>01:53</t>
   </si>
 </sst>
 </file>
@@ -439,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="60" customWidth="1"/>
@@ -492,6 +537,75 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/backend/rdd/RDD-Brejinho.xlsx
+++ b/backend/rdd/RDD-Brejinho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>TIPO_DE_SERVICO</t>
   </si>
@@ -34,10 +34,58 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>manutencao roteador rede cabeada</t>
-  </si>
-  <si>
-    <t>Vila de fatima</t>
+    <t xml:space="preserve">Manutenção no roteador </t>
+  </si>
+  <si>
+    <t>Brejinho</t>
+  </si>
+  <si>
+    <t>17:07</t>
+  </si>
+  <si>
+    <t>17:23</t>
+  </si>
+  <si>
+    <t>00:16</t>
+  </si>
+  <si>
+    <t>Rivaldo</t>
+  </si>
+  <si>
+    <t>5/5/2022</t>
+  </si>
+  <si>
+    <t>Manutenção na antena</t>
+  </si>
+  <si>
+    <t>Batinga lagoinha</t>
+  </si>
+  <si>
+    <t>15:20</t>
+  </si>
+  <si>
+    <t>16:57</t>
+  </si>
+  <si>
+    <t>01:37</t>
+  </si>
+  <si>
+    <t>Lagoa dos rodrigues</t>
+  </si>
+  <si>
+    <t>15:54</t>
+  </si>
+  <si>
+    <t>16:01</t>
+  </si>
+  <si>
+    <t>00:07</t>
+  </si>
+  <si>
+    <t>Manutenção no roteador</t>
+  </si>
+  <si>
+    <t>vila de fatima</t>
   </si>
   <si>
     <t>16:35</t>
@@ -49,55 +97,31 @@
     <t>00:20</t>
   </si>
   <si>
-    <t>Rivaldo Souza</t>
-  </si>
-  <si>
-    <t>4/5/2022</t>
-  </si>
-  <si>
-    <t>Verificação na antena da cliente</t>
-  </si>
-  <si>
-    <t>Mussambe</t>
-  </si>
-  <si>
-    <t>14:39</t>
-  </si>
-  <si>
-    <t>15:28</t>
-  </si>
-  <si>
-    <t>00:49</t>
-  </si>
-  <si>
-    <t>Orientação ao cliente, de como remover os cabos do PoE</t>
-  </si>
-  <si>
-    <t>Lagoa dos campos</t>
-  </si>
-  <si>
-    <t>14:42</t>
-  </si>
-  <si>
-    <t>15:13</t>
-  </si>
-  <si>
-    <t>00:31</t>
-  </si>
-  <si>
-    <t>Orientação a respeito da conexão</t>
-  </si>
-  <si>
-    <t>Sitio santana</t>
-  </si>
-  <si>
-    <t>09:36</t>
-  </si>
-  <si>
-    <t>11:29</t>
-  </si>
-  <si>
-    <t>01:53</t>
+    <t>Abertura de os</t>
+  </si>
+  <si>
+    <t>Batinga da lagoinha</t>
+  </si>
+  <si>
+    <t>09:47</t>
+  </si>
+  <si>
+    <t>17:20</t>
+  </si>
+  <si>
+    <t>07:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atidimento Preliminar </t>
+  </si>
+  <si>
+    <t>Cutia</t>
+  </si>
+  <si>
+    <t>17:10</t>
+  </si>
+  <si>
+    <t>00:10</t>
   </si>
 </sst>
 </file>
@@ -484,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="60" customWidth="1"/>
@@ -562,19 +586,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -585,24 +609,70 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/backend/rdd/RDD-Brejinho.xlsx
+++ b/backend/rdd/RDD-Brejinho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>TIPO_DE_SERVICO</t>
   </si>
@@ -34,94 +34,76 @@
     <t>DATA</t>
   </si>
   <si>
-    <t xml:space="preserve">Manutenção no roteador </t>
+    <t>Manutenção no equipamento do cliente</t>
+  </si>
+  <si>
+    <t>Serrinha</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>11:10</t>
+  </si>
+  <si>
+    <t>01:10</t>
+  </si>
+  <si>
+    <t>Rivaldo Souza</t>
+  </si>
+  <si>
+    <t>7/5/2022</t>
+  </si>
+  <si>
+    <t>Atendimento preliminar manutenção no roteador</t>
   </si>
   <si>
     <t>Brejinho</t>
   </si>
   <si>
-    <t>17:07</t>
-  </si>
-  <si>
-    <t>17:23</t>
-  </si>
-  <si>
-    <t>00:16</t>
-  </si>
-  <si>
-    <t>Rivaldo</t>
-  </si>
-  <si>
-    <t>5/5/2022</t>
-  </si>
-  <si>
-    <t>Manutenção na antena</t>
-  </si>
-  <si>
-    <t>Batinga lagoinha</t>
-  </si>
-  <si>
-    <t>15:20</t>
-  </si>
-  <si>
-    <t>16:57</t>
-  </si>
-  <si>
-    <t>01:37</t>
-  </si>
-  <si>
-    <t>Lagoa dos rodrigues</t>
-  </si>
-  <si>
-    <t>15:54</t>
-  </si>
-  <si>
-    <t>16:01</t>
-  </si>
-  <si>
-    <t>00:07</t>
-  </si>
-  <si>
-    <t>Manutenção no roteador</t>
-  </si>
-  <si>
-    <t>vila de fatima</t>
-  </si>
-  <si>
-    <t>16:35</t>
-  </si>
-  <si>
-    <t>16:55</t>
-  </si>
-  <si>
-    <t>00:20</t>
-  </si>
-  <si>
-    <t>Abertura de os</t>
-  </si>
-  <si>
-    <t>Batinga da lagoinha</t>
-  </si>
-  <si>
-    <t>09:47</t>
-  </si>
-  <si>
-    <t>17:20</t>
-  </si>
-  <si>
-    <t>07:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atidimento Preliminar </t>
-  </si>
-  <si>
-    <t>Cutia</t>
-  </si>
-  <si>
-    <t>17:10</t>
-  </si>
-  <si>
-    <t>00:10</t>
+    <t>10:31</t>
+  </si>
+  <si>
+    <t>11:54</t>
+  </si>
+  <si>
+    <t>01:23</t>
+  </si>
+  <si>
+    <t>Atendimento preliminar transferencia financeiro</t>
+  </si>
+  <si>
+    <t>08:36</t>
+  </si>
+  <si>
+    <t>08:39</t>
+  </si>
+  <si>
+    <t>00:03</t>
+  </si>
+  <si>
+    <t>Atendimento preliminar abertura de os</t>
+  </si>
+  <si>
+    <t>Pacas</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>08:45</t>
+  </si>
+  <si>
+    <t>00:15</t>
+  </si>
+  <si>
+    <t>Degredo</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>11:00</t>
   </si>
 </sst>
 </file>
@@ -508,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="60" customWidth="1"/>
@@ -586,10 +568,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -632,47 +614,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/backend/rdd/RDD-Brejinho.xlsx
+++ b/backend/rdd/RDD-Brejinho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>TIPO_DE_SERVICO</t>
   </si>
@@ -34,76 +34,82 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>Manutenção no equipamento do cliente</t>
-  </si>
-  <si>
-    <t>Serrinha</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>11:10</t>
-  </si>
-  <si>
-    <t>01:10</t>
-  </si>
-  <si>
-    <t>Rivaldo Souza</t>
-  </si>
-  <si>
-    <t>7/5/2022</t>
-  </si>
-  <si>
-    <t>Atendimento preliminar manutenção no roteador</t>
+    <t>Manutenção no roteador</t>
+  </si>
+  <si>
+    <t>Lagoa dos campos</t>
+  </si>
+  <si>
+    <t>15:44</t>
+  </si>
+  <si>
+    <t>17:19</t>
+  </si>
+  <si>
+    <t>01:35</t>
+  </si>
+  <si>
+    <t>Rivaldo</t>
+  </si>
+  <si>
+    <t>9/5/2022</t>
+  </si>
+  <si>
+    <t>Manutenção no roteador e na antena</t>
+  </si>
+  <si>
+    <t>Lagoa de mizael</t>
+  </si>
+  <si>
+    <t>15:31</t>
+  </si>
+  <si>
+    <t>16:17</t>
+  </si>
+  <si>
+    <t>00:46</t>
+  </si>
+  <si>
+    <t>Visita ao cliente</t>
   </si>
   <si>
     <t>Brejinho</t>
   </si>
   <si>
-    <t>10:31</t>
-  </si>
-  <si>
-    <t>11:54</t>
-  </si>
-  <si>
-    <t>01:23</t>
-  </si>
-  <si>
-    <t>Atendimento preliminar transferencia financeiro</t>
-  </si>
-  <si>
-    <t>08:36</t>
-  </si>
-  <si>
-    <t>08:39</t>
-  </si>
-  <si>
-    <t>00:03</t>
-  </si>
-  <si>
-    <t>Atendimento preliminar abertura de os</t>
-  </si>
-  <si>
-    <t>Pacas</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>08:45</t>
-  </si>
-  <si>
-    <t>00:15</t>
-  </si>
-  <si>
-    <t>Degredo</t>
-  </si>
-  <si>
-    <t>10:45</t>
-  </si>
-  <si>
-    <t>11:00</t>
+    <t>09:26</t>
+  </si>
+  <si>
+    <t>11:57</t>
+  </si>
+  <si>
+    <t>02:31</t>
+  </si>
+  <si>
+    <t>atendimento preliminar abertura de os</t>
+  </si>
+  <si>
+    <t>10:46</t>
+  </si>
+  <si>
+    <t>11:13</t>
+  </si>
+  <si>
+    <t>00:27</t>
+  </si>
+  <si>
+    <t>atendimento preliminar transferencia financeiro</t>
+  </si>
+  <si>
+    <t>Batinga da lagoinha</t>
+  </si>
+  <si>
+    <t>13:02</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>00:38</t>
   </si>
 </sst>
 </file>
@@ -571,16 +577,16 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -591,10 +597,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>25</v>
@@ -614,19 +620,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>

--- a/backend/rdd/RDD-Brejinho.xlsx
+++ b/backend/rdd/RDD-Brejinho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>TIPO_DE_SERVICO</t>
   </si>
@@ -34,82 +34,76 @@
     <t>DATA</t>
   </si>
   <si>
+    <t>Manutenção no roteador da cliente teste de velocidade</t>
+  </si>
+  <si>
+    <t>Brejinho</t>
+  </si>
+  <si>
+    <t>10:40</t>
+  </si>
+  <si>
+    <t>15:52</t>
+  </si>
+  <si>
+    <t>05:12</t>
+  </si>
+  <si>
+    <t>Rivaldo</t>
+  </si>
+  <si>
+    <t>10/5/2022</t>
+  </si>
+  <si>
     <t>Manutenção no roteador</t>
   </si>
   <si>
-    <t>Lagoa dos campos</t>
-  </si>
-  <si>
-    <t>15:44</t>
-  </si>
-  <si>
-    <t>17:19</t>
-  </si>
-  <si>
-    <t>01:35</t>
-  </si>
-  <si>
-    <t>Rivaldo</t>
-  </si>
-  <si>
-    <t>9/5/2022</t>
-  </si>
-  <si>
-    <t>Manutenção no roteador e na antena</t>
-  </si>
-  <si>
-    <t>Lagoa de mizael</t>
-  </si>
-  <si>
-    <t>15:31</t>
-  </si>
-  <si>
-    <t>16:17</t>
-  </si>
-  <si>
-    <t>00:46</t>
-  </si>
-  <si>
-    <t>Visita ao cliente</t>
-  </si>
-  <si>
-    <t>Brejinho</t>
-  </si>
-  <si>
-    <t>09:26</t>
-  </si>
-  <si>
-    <t>11:57</t>
-  </si>
-  <si>
-    <t>02:31</t>
-  </si>
-  <si>
-    <t>atendimento preliminar abertura de os</t>
-  </si>
-  <si>
-    <t>10:46</t>
-  </si>
-  <si>
-    <t>11:13</t>
-  </si>
-  <si>
-    <t>00:27</t>
-  </si>
-  <si>
-    <t>atendimento preliminar transferencia financeiro</t>
-  </si>
-  <si>
-    <t>Batinga da lagoinha</t>
-  </si>
-  <si>
-    <t>13:02</t>
-  </si>
-  <si>
-    <t>13:40</t>
-  </si>
-  <si>
-    <t>00:38</t>
+    <t>14:46</t>
+  </si>
+  <si>
+    <t>17:15</t>
+  </si>
+  <si>
+    <t>02:29</t>
+  </si>
+  <si>
+    <t>Troca de senha wifi</t>
+  </si>
+  <si>
+    <t>07:16</t>
+  </si>
+  <si>
+    <t>08:40</t>
+  </si>
+  <si>
+    <t>01:24</t>
+  </si>
+  <si>
+    <t>Atendimento preliminar transferencia comercial</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>14:49</t>
+  </si>
+  <si>
+    <t>02:04</t>
+  </si>
+  <si>
+    <t>Contato com o cliente para suporte presencial</t>
+  </si>
+  <si>
+    <t>Sitio cutia</t>
+  </si>
+  <si>
+    <t>08:46</t>
+  </si>
+  <si>
+    <t>09:10</t>
+  </si>
+  <si>
+    <t>00:24</t>
   </si>
 </sst>
 </file>
@@ -554,16 +548,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -574,19 +568,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -597,19 +591,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -620,19 +614,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>

--- a/backend/rdd/RDD-Brejinho.xlsx
+++ b/backend/rdd/RDD-Brejinho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>TIPO_DE_SERVICO</t>
   </si>
@@ -34,76 +34,64 @@
     <t>DATA</t>
   </si>
   <si>
-    <t>Manutenção no roteador da cliente teste de velocidade</t>
+    <t>Manutenção no roteador do cliente</t>
   </si>
   <si>
     <t>Brejinho</t>
   </si>
   <si>
-    <t>10:40</t>
-  </si>
-  <si>
-    <t>15:52</t>
-  </si>
-  <si>
-    <t>05:12</t>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>01:40</t>
   </si>
   <si>
     <t>Rivaldo</t>
   </si>
   <si>
-    <t>10/5/2022</t>
-  </si>
-  <si>
-    <t>Manutenção no roteador</t>
-  </si>
-  <si>
-    <t>14:46</t>
-  </si>
-  <si>
-    <t>17:15</t>
-  </si>
-  <si>
-    <t>02:29</t>
-  </si>
-  <si>
-    <t>Troca de senha wifi</t>
-  </si>
-  <si>
-    <t>07:16</t>
+    <t>11/5/2022</t>
+  </si>
+  <si>
+    <t>Informação a respeito dos trabalhos prestados pelo provedor</t>
   </si>
   <si>
     <t>08:40</t>
   </si>
   <si>
-    <t>01:24</t>
-  </si>
-  <si>
-    <t>Atendimento preliminar transferencia comercial</t>
-  </si>
-  <si>
-    <t>12:45</t>
-  </si>
-  <si>
-    <t>14:49</t>
-  </si>
-  <si>
-    <t>02:04</t>
-  </si>
-  <si>
-    <t>Contato com o cliente para suporte presencial</t>
-  </si>
-  <si>
-    <t>Sitio cutia</t>
-  </si>
-  <si>
-    <t>08:46</t>
-  </si>
-  <si>
-    <t>09:10</t>
-  </si>
-  <si>
-    <t>00:24</t>
+    <t>11:40</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>Agendamento de suporte remoto</t>
+  </si>
+  <si>
+    <t>Sitio Degredo</t>
+  </si>
+  <si>
+    <t>16:21</t>
+  </si>
+  <si>
+    <t>17:11</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atendimento preliminar, transferencia comercial </t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:15</t>
+  </si>
+  <si>
+    <t>00:15</t>
   </si>
 </sst>
 </file>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="60" customWidth="1"/>
@@ -571,16 +559,16 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -591,47 +579,24 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
